--- a/dev/game_my_interventions.xlsx
+++ b/dev/game_my_interventions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/martin-cs7/build/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61DC9C-561E-DA4F-94B4-29AF7E0702F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A205D-7564-C14D-89AA-0318ACB0681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="6280" windowWidth="40780" windowHeight="21420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -747,11 +747,6 @@
     <t>Approve nature-based flood protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached by local university to host a beaver land management project to reduce river flooding.
-The proposal is positively regarded as it positions the municipality as being forward looking by adopting nature-based solutions and the trial should be a low-cost activity.
-However, as a research project, it's unproven and may go horribly wrong. There's also the consideration that beavers are an invasive species, so may adversely impact the local flora and fauna. </t>
-  </si>
-  <si>
     <t>Nature-based flood protection Outcomes</t>
   </si>
   <si>
@@ -1026,6 +1021,11 @@
   </si>
   <si>
     <t>The project is a disaster! The municipality advocated for the smart meter app, but it turned to be full of spyware, collecting customer details and making unauthorised charges on customer accounts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality has been approached by local university to host a beaver land management project to reduce river flooding.
+The proposal is positively regarded as it positions the municipality as being forward looking by adopting nature-based solutions and the trial should be a low-cost activity.
+However, as a research project, it's unproven and may go horribly wrong. There's also the consideration that beavers are an introduced species, so may adversely impact the local flora and fauna. </t>
   </si>
 </sst>
 </file>
@@ -1903,11 +1903,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="137" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2326,7 +2326,7 @@
         <v>159</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>160</v>
@@ -2461,7 +2461,7 @@
         <v>182</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>183</v>
@@ -2708,8 +2708,8 @@
       <c r="B18" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>224</v>
+      <c r="C18" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="3">
@@ -2728,22 +2728,22 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="119" x14ac:dyDescent="0.2">
@@ -2751,10 +2751,10 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3">
@@ -2773,19 +2773,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>171</v>
@@ -2796,10 +2796,10 @@
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3">
@@ -2818,22 +2818,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -2841,13 +2841,13 @@
         <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>145</v>
@@ -2888,13 +2888,13 @@
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -2912,19 +2912,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>156</v>
@@ -2935,13 +2935,13 @@
         <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2959,22 +2959,22 @@
         <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="136" x14ac:dyDescent="0.2">
@@ -2982,10 +2982,10 @@
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -3003,22 +3003,22 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3026,13 +3026,13 @@
         <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -3050,22 +3050,22 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="153" x14ac:dyDescent="0.2">
@@ -3073,13 +3073,13 @@
         <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         <v>2</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3120,10 +3120,10 @@
         <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -3141,22 +3141,22 @@
         <v>-2</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -3164,10 +3164,10 @@
         <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -3185,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>145</v>
@@ -3194,7 +3194,7 @@
         <v>146</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>148</v>
@@ -3208,10 +3208,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -3229,19 +3229,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>156</v>

--- a/dev/game_my_interventions.xlsx
+++ b/dev/game_my_interventions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A205D-7564-C14D-89AA-0318ACB0681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409B71F-FF9A-2F4F-8F4A-F8E4E8CFFCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1903,11 +1903,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="137" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="137" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
         <v>-1</v>
@@ -2030,13 +2030,13 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <v>-1</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="3">
         <v>-1</v>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>174</v>
@@ -2449,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>182</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>217</v>
@@ -2713,16 +2713,16 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -2758,16 +2758,16 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>-1</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>259</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>268</v>
@@ -3041,10 +3041,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <v>2</v>
@@ -3088,13 +3088,13 @@
         <v>2</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>284</v>
@@ -3126,7 +3126,7 @@
         <v>291</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>

--- a/dev/game_my_interventions.xlsx
+++ b/dev/game_my_interventions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/dev/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409B71F-FF9A-2F4F-8F4A-F8E4E8CFFCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -362,9 +356,8 @@
     <t>Approve a fish farm</t>
   </si>
   <si>
-    <t>Municipality has been approached to approve an offshore fish-farm. The farm will use modern methods to optimise fish yields. 
-The farm will create local jobs in growing and processing the fish and will make good quality fish available   in the region and nationally.
-However, fish farms are often criticised for creating monocultures, both for the fish and other water users as the farms are somewhat secretive about their methods of fish husbandry.</t>
+    <t>The municipality has been approached to approve the development of an offshore fish farm that will employ modern aquaculture techniques to optimize fish yields. The project is expected to create local employment opportunities in both fish cultivation and processing, while also increasing the availability of high-quality fish at both regional and national levels.
+However, fish farms have faced criticism for promoting monocultures, not only among farmed fish species but also by impacting the diversity of other marine life in the surrounding waters. Additionally, concerns have been raised about the lack of transparency in some fish farming operations, particularly regarding their husbandry practices.</t>
   </si>
   <si>
     <t>Fish farm Outcomes</t>
@@ -388,8 +381,8 @@
     <t>Approve a monofarm</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached to approve a commercial super-farm on unused farmland. The farm will use modern methods to optimise crop production.
-The farm will grow high yield, resistant crops and will create local jobs to support its operations. However, the high use of pesticides and high water consumption are likely to have negative impacts on biodiversity and water availability.  </t>
+    <t>The municipality has been approached to approve the development of a large-scale commercial farm on currently unused farmland. The proposed operation will utilize modern agricultural techniques to maximize crop production, focusing on high-yield, disease-resistant varieties. The farm is expected to generate local employment and contribute to regional food supply.
+However, the planned use of intensive pesticides and high water consumption raises concerns about potential negative impacts on local biodiversity and water resources. These environmental risks will need to be carefully assessed and managed.</t>
   </si>
   <si>
     <t>Monofarm Outcomes</t>
@@ -413,8 +406,8 @@
     <t>Citizen biodiversity</t>
   </si>
   <si>
-    <t>Municipality has been approached to approve citizen science project to engage with members of the public to observe and record local fauna and flora using a mobile app.
-Recording the environment will help researchers to understand the current state of the environment and capture its changes over time, to determine positive and negative biodiversity changes.</t>
+    <t>The municipality has been approached to approve a citizen science project aimed at engaging members of the public in observing and recording local flora and fauna using a mobile app.
+By documenting environmental observations, the project will assist researchers in assessing the current state of local ecosystems and tracking changes over time, helping to identify both positive and negative trends in biodiversity.</t>
   </si>
   <si>
     <t>CS9</t>
@@ -441,8 +434,8 @@
     <t>Protect local biodiversity</t>
   </si>
   <si>
-    <t>Municipality has been approached to approve the development of a wildlife park that specialises in protecting and supporting local flora and fauna.
-The park will develop a breeding programme for rare fauna and look to release animals back into the local community to maintain viable stocks.</t>
+    <t>The municipality has been approached to approve the development of a wildlife park dedicated to the protection and conservation of local flora and fauna.
+The park plans to establish a breeding program for rare and threatened animal species, with the goal of reintroducing them into the surrounding environment to help maintain healthy and sustainable populations.</t>
   </si>
   <si>
     <t>Protect local biodiversity Outcomes</t>
@@ -466,7 +459,7 @@
     <t>Legally protect local crops</t>
   </si>
   <si>
-    <t>Municipality has been approached a local farming group to legally enshrine their locally produced crops using appropriate EU legislation. This would stop similar crops grown in other regions from using this regions' name.</t>
+    <t>The municipality has been approached by a local farming group seeking legal protection for their regionally produced crops under relevant EU legislation (Geographical Indication or GI tagging of crops). This designation would ensure that only crops grown in this specific area can use the region’s name, preventing producers in other regions from marketing similar products under the same label.</t>
   </si>
   <si>
     <t>Legally protect local crops Outcomes</t>
@@ -490,8 +483,8 @@
     <t>Create a biodiversity knowledge base</t>
   </si>
   <si>
-    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them support biodiversity.
-Research has shown that people often make poor biodiversity decisions due to a lack of knowledge and suitable support. A website that provides support and information will help residents to become more knowledgeable.</t>
+    <t>The municipality has been approached to support the development of a community website designed to provide residents with practical information and resources to promote local biodiversity.
+Research indicates that poor biodiversity decisions often stem from limited knowledge and guidance. By offering clear, accessible information, the website aims to empower residents to make informed choices that support and enhance the local environment.</t>
   </si>
   <si>
     <t>Biodiversity knowledge base Outcomes</t>
@@ -512,8 +505,8 @@
     <t xml:space="preserve">Create a biodiversity digital twin </t>
   </si>
   <si>
-    <t>Municipality will develop a biodiversity modelling digital twin to evaluate the likelihood and impact of activities that may be adverse to biodiversity, to build biodiversity resilience.
-The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+    <t>The municipality plans to develop a biodiversity modelling digital twin to assess the likelihood and potential impact of activities that could negatively affect local biodiversity, with the aim of strengthening ecosystem resilience.
+This digital twin will integrate real-world data with simulation models to generate actionable insights. Its effectiveness will largely depend on the quality of the data collected and the accuracy of the underlying models.</t>
   </si>
   <si>
     <t>Biodiversity digital twin Outcomes</t>
@@ -537,13 +530,16 @@
     <t xml:space="preserve">Approve reservoir construction </t>
   </si>
   <si>
-    <t>Municipality has been approached by the local water company to build a large reservoir in a local valley. The reservoir will capture the heavy winter rains, creating a more permeant water supply and reducing water scarcity in the summer months.
-However, flooding the valley will impact local wildlife and stop fish migrations through the river that the reservoir is on.</t>
+    <t>The municipality has been approached by the local water company with a proposal to construct a large reservoir in a nearby valley. The reservoir would capture heavy winter rainfall, helping to establish a more reliable year-round water supply and alleviate water scarcity during the summer months.
+However, flooding the valley would significantly alter the local ecosystem, displacing wildlife and disrupting fish migration along the river affected by the reservoir.</t>
   </si>
   <si>
     <t>Reservoir construction Outcomes</t>
   </si>
   <si>
+    <t>The project is a disaster! The dam has been successfully constructed, but it's empty! It turns out that the municipality signed the wrong water ordinances and the expected inflowing rives are flowing elsewhere.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reduced flows downstream have affected local fish population. The local angling community are unhappy </t>
   </si>
   <si>
@@ -559,9 +555,8 @@
     <t>Approve a golf resort development</t>
   </si>
   <si>
-    <t>Municipality has been approached by a premier resort developer to build a golf course resort on unused land. 
-The course will attract wealthy golf enthusiasts and will spread wealth around the local area, with jobs and commercial opportunities for locals.
-There is some concern that the course will require significant water resources to keep the course green and that the wealth of the members may stay in the gated community of the resort.</t>
+    <t>The municipality has been approached by a leading resort developer with a proposal to build a golf course resort on currently unused land. The project aims to attract affluent golf enthusiasts and is expected to stimulate the local economy by creating jobs and generating commercial opportunities for residents.
+However, concerns have been raised about the resort’s high water demands to maintain the course, as well as the possibility that much of the generated wealth may remain within the resort’s gated community, limiting broader economic benefits to the surrounding area.</t>
   </si>
   <si>
     <t>golf resort development Outcomes</t>
@@ -585,9 +580,9 @@
     <t>Approve water delivery service</t>
   </si>
   <si>
-    <t xml:space="preserve">The municipality is looking to ship in bottled water from another country in order to ameliorate problems with drinking water supply during drought conditions.
-This will give the town a dependable supply of drinking water during the summer and it's much cheaper than updating the towns water collection and distribution network. 
-However, the constant deliveries of bottled water will create traffic congestion. There's also the public relations issue that the municipality isn't prepared to solve its hard problems and just buys in solutions. </t>
+    <t xml:space="preserve">The municipality is considering importing bottled water from abroad to address drinking water shortages during drought conditions. This approach would provide a reliable summer water supply and is significantly less expensive in the short term than upgrading the town’s aging water collection and distribution infrastructure.
+However, regular deliveries of bottled water could contribute to traffic congestion and raise public concerns. There is also a reputational risk that the municipality may be seen as avoiding long-term solutions in favor of quick, externally sourced fixes.
+</t>
   </si>
   <si>
     <t>Water delivery service Outcomes</t>
@@ -611,14 +606,17 @@
     <t>Install smart water meters</t>
   </si>
   <si>
-    <t>The municipality is looking to install smart domestic water meters, allowing customers to view consumption and highlight leaks within their houses.
-The meters allow customers to view their water consumption on a minute by minute basis, easily seeing the impact of showers, watering the gardening and running the washing machine and dishwasher.
-However, customers often lose interest in their consumption once the novelty of a smart meter has worn off.</t>
+    <t>The municipality plans to install smart domestic water meters that enable residents to monitor their water usage in real time and detect potential leaks within their homes.
+These meters provide minute-by-minute consumption data, allowing users to clearly see the impact of activities such as showering, garden irrigation, and using appliances like dishwashers and washing machines.
+While this technology offers valuable insights, user engagement tends to decline over time as the initial novelty of monitoring water usage diminishes.</t>
   </si>
   <si>
     <t>smart water meter Outcomes</t>
   </si>
   <si>
+    <t>The project is a disaster! The municipality advocated for the smart meter app, but it turned to be full of spyware, collecting customer details and making unauthorised charges on customer accounts.</t>
+  </si>
+  <si>
     <t>Meters have been installed, but the public response is apathetic. There is a perception that the meters are part of a 'surveillance society' that will use water consumption data to clamp down on civil liberties.</t>
   </si>
   <si>
@@ -634,8 +632,8 @@
     <t>Smart irrigation programme</t>
   </si>
   <si>
-    <t>The municipality is looking to work with local market gardeners to install smart irrigation systems to reduce water consumption.
-The town has a large market garden industry which often places great demand on the water distribution network, with farmers preferring to water more than less, even though over watering can adversely effect crops. Using computers to access crop need should lead to less water consumption and allow currently marginal land to be used.</t>
+    <t>The municipality is seeking to collaborate with local market gardeners to implement smart irrigation systems aimed at reducing water consumption.
+The town hosts a significant market gardening industry that places substantial demand on the water distribution network. Farmers often err on the side of overwatering, despite the potential negative impact on crop health. By using computer-assisted systems to assess the actual water needs of crops, irrigation can be optimized, leading to lower overall water use and enabling the cultivation of currently marginal land.</t>
   </si>
   <si>
     <t>Smart irrigation programme Outcomes</t>
@@ -659,8 +657,8 @@
     <t>Create a drought dashboard</t>
   </si>
   <si>
-    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through drought event.
-Research has shown that people are more stressed about the idea of being in a drought, rather than actually experiencing a drought. A website that provides support and information will help residents to become more knowledgeable.</t>
+    <t>The municipality has been approached to develop a community website that will provide residents with practical information and support to help them navigate drought events.
+Research indicates that residents often experience greater stress from the anticipation of a drought than from the actual event itself. By offering clear, accessible resources, the website can help alleviate concerns, increase awareness, and empower the community with the knowledge needed to respond effectively.</t>
   </si>
   <si>
     <t>Drought dashboard Outcomes</t>
@@ -675,8 +673,8 @@
     <t>Create a drought digital twin</t>
   </si>
   <si>
-    <t>Municipality will develop a drought modelling digital twin to evaluate the likelihood and impact of potential drought events, to better prepare for droughts and long-term planning for drought resilience.
-The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+    <t>The municipality will develop a drought modelling digital twin to assess the likelihood and potential impacts of future drought events. This tool will support improved preparedness and inform long-term planning for drought resilience.
+By integrating real-world data with advanced simulation models, the digital twin will generate valuable insights. Its effectiveness, however, will depend heavily on the quality of the data collected and the accuracy of the underlying models.</t>
   </si>
   <si>
     <t>Drought digital twin Outcomes</t>
@@ -697,8 +695,8 @@
     <t>Approve sea wall construction</t>
   </si>
   <si>
-    <t>The community around the coastal road has been plagued by frequent sea floods, from high tides and onshore winds. This causes a great deal of disruption and leaves the area with costly flood damage and debris to clean up.
-Building a sea wall will stop these flooding events. It will be a messy and disruptive construction process, but stopping the floods will help the area to stabilise and grow economically, even if it does ruin a good sea view.</t>
+    <t>The community along the coastal road has been repeatedly impacted by sea flooding, driven by high tides and onshore winds. These events cause significant disruption, resulting in costly flood damage and extensive clean-up efforts.
+Constructing a sea wall will provide long-term protection by preventing future flooding. While the construction process will be disruptive and the structure may affect the scenic coastal views, the long-term benefits, including improved safety, reduced damage, and economic stability, are expected to outweigh the drawbacks, supporting the community’s growth and resilience.</t>
   </si>
   <si>
     <t>Sea wall construction Outcomes</t>
@@ -722,8 +720,8 @@
     <t>Approve out-of-town leisure resort</t>
   </si>
   <si>
-    <t>Municipality has been approached by a retail company to develop a large out of town retail and leisure park on unused land. 
-The proposal is well regarded as it will provide long term employment for the area​ with many new jobs and attract a lot of visitors to the town. However, it's likely that the town centre will be hit financially with shoppers preferring to use the new out of town shops. In addition, the preferred development site is a meadow that's popular with the locals.</t>
+    <t>The municipality has been approached by a retail company with a proposal to develop a large out-of-town retail and leisure park on currently unused land.
+The proposal is viewed positively for its potential to bring long-term employment opportunities to the area and attract a significant number of visitors to the town. However, there are concerns that the development could negatively impact the town centre, as shoppers may prefer the convenience of the new retail hub. Additionally, the proposed site is a well-loved local meadow, valued by the community for recreation and green space.</t>
   </si>
   <si>
     <t>Out-of-town leisure resort Outcomes</t>
@@ -747,6 +745,11 @@
     <t>Approve nature-based flood protection</t>
   </si>
   <si>
+    <t>The municipality has been approached by the local university to host a beaver-led land management project aimed at reducing river flooding through nature-based solutions.
+The proposal is viewed positively, as it positions the municipality as forward-thinking in its approach to climate resilience and environmental sustainability. As a pilot, the project is expected to be low-cost and could generate valuable insights into natural flood mitigation.
+However, as a research initiative, the outcomes are uncertain and there is a risk that the project may not deliver the intended results. Additionally, since beavers are an introduced species, there are concerns about their potential impact on local ecosystems, including native flora and fauna.</t>
+  </si>
+  <si>
     <t>Nature-based flood protection Outcomes</t>
   </si>
   <si>
@@ -768,8 +771,9 @@
     <t>Return seaside golf course to sea</t>
   </si>
   <si>
-    <t xml:space="preserve">The town’s seaside golf course is becoming submerged by global warming and high tides, with the municipality current spending a lot to protect it from nature.  Returning the course to the sea would allow the municipality to spend its limited budgets where they can have the biggest impact​, support the creation of a wildlife wetland​, and reduce motor traffic by that part of the shoreline.
-However, such an action is likely to anger the golfers that current use the course and may be seen by townspeople as the municipality abandoning parts of the town to nature​. </t>
+    <t>The town’s seaside golf course is increasingly threatened by rising sea levels and high tides due to global warming. Currently, the municipality is investing significant resources to protect the course from natural encroachment.
+Allowing the course to return to the sea would enable the municipality to allocate its limited budget more effectively, support the creation of a wildlife wetland, and reduce motor traffic along that stretch of the shoreline.
+However, this decision is likely to upset the golfers who regularly use the course and may be perceived by some residents as the municipality abandoning parts of the town to nature.</t>
   </si>
   <si>
     <t>Return seaside golf course to sea Outcomes</t>
@@ -790,9 +794,9 @@
     <t>Engage in flood plain management</t>
   </si>
   <si>
-    <t>Municipality has been approached to develop flood plain management for the local river, removing existing developments and allowing land to flood and store flood water. 
-This should reduce flooding to downstream neighbourhoods​ and better management of the flood plans will facilitate the creation of new recreational activities and attract wildlife.​
-However, the flood plains will not remove flooding, which is likely to cause issues with stakeholders if not communicated properly.</t>
+    <t>The municipality has been approached to develop a floodplain management plan for the local river, which involves removing existing developments and allowing the land to naturally flood and store excess water.
+This approach is expected to reduce flooding in downstream neighborhoods, while better-managed floodplains can also support new recreational opportunities and attract diverse wildlife.
+However, it is important to communicate clearly with stakeholders that floodplain management will not completely eliminate flooding, as misunderstandings could lead to concerns or opposition.</t>
   </si>
   <si>
     <t>Flood plain management Outcomes</t>
@@ -816,8 +820,9 @@
     <t xml:space="preserve">Create a flood support website </t>
   </si>
   <si>
-    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through floods.
-Research has shown that people are more stressed about the idea of being in a flood, rather than actually experiencing a flood. A website that provides support and information will help residents to become more knowledgeable.</t>
+    <t xml:space="preserve">The municipality has been approached to develop a community website that offers residents practical information and support to help them prepare for and cope with floods.
+Research shows that people often experience greater stress from the anticipation of flooding than from the event itself. Providing clear, accessible resources through the website can help alleviate anxiety and increase residents’ understanding and preparedness.
+</t>
   </si>
   <si>
     <t>CS6</t>
@@ -829,8 +834,8 @@
     <t>Create a flooding digital twin</t>
   </si>
   <si>
-    <t>Municipality will develop a flood modelling digital twin to evaluate the likelihood and impact of potential flooding events, to better prepare for flooding and long-term planning for flood resilience.
-The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+    <t>The municipality will develop a flood modelling digital twin to assess the likelihood and potential impacts of future flooding events. This tool will enhance flood preparedness and support long-term resilience planning.
+By integrating real-world data with advanced simulation models, the digital twin will generate valuable insights. Its effectiveness will depend largely on the quality of the data collected and the accuracy of the modelling.</t>
   </si>
   <si>
     <t>CS8</t>
@@ -854,8 +859,8 @@
     <t>Approve installation of cool roofs</t>
   </si>
   <si>
-    <t>Plans have been submitted to paint roofs with reflective paint, reducing the overall temperature in buildings and surrounding environment.
-The project is generally a low-cost and non-invasive method of reducing urban heat. However, it only really benefits areas with long periods of very hot weather and is counter-productive in areas where solar panels have been installed.</t>
+    <t>Plans have been submitted to apply reflective paint to roofs, aiming to reduce indoor temperatures and mitigate heat in the surrounding environment.
+This approach is generally a low-cost and non-invasive method for combating urban heat. However, its benefits are most significant in areas experiencing prolonged hot weather, and it may be counterproductive in locations where solar panels are installed.</t>
   </si>
   <si>
     <t>CS1</t>
@@ -882,9 +887,9 @@
     <t>Approve installation of firebreaks</t>
   </si>
   <si>
-    <t>Plans have been submitted to Install fire breaks in the dry hinterland to reduce long-term damage of  heat-induced forest and scrub fires.
-The breaks should contain fires and stop them spreading so widely. This should reduce reliance on the emergency services and reduce biodiversity loss.
-However,  there are costs associated with installing and maintaining the breaks and the biodiversity impact of initially removing trees and scrubland.</t>
+    <t>Plans have been submitted to install fire breaks in the dry hinterland to help reduce the long-term damage caused by heat-induced forest and scrub fires.
+These fire breaks are designed to contain fires and prevent them from spreading, which would reduce pressure on emergency services and help limit biodiversity loss over time.
+However, there are costs associated with both the installation and ongoing maintenance of the fire breaks. Additionally, the initial clearing of trees and scrubland may have short-term negative impacts on local biodiversity.</t>
   </si>
   <si>
     <t>Install firebreaks Outcomes</t>
@@ -908,8 +913,8 @@
     <t>Approve installation of green walls</t>
   </si>
   <si>
-    <t>Municipality has been approached to install green walls on buildings in the town. The process should reduce local temperatures, making the buildings, and moreover, the streets around them cooler during the day, allowing residents to make more of the town's shops during the day.
-However, the walls require a water supply to keep them green, otherwise, the plants will die creating bio and fire hazards.</t>
+    <t>The municipality has been approached to install green walls on buildings throughout the town. These installations can help reduce local temperatures by cooling both the buildings and surrounding streets, encouraging greater daytime use of public spaces and increased foot traffic to local shops.
+However, green walls require a consistent water supply to keep them green. Without proper maintenance, the plants may die, creating both biological and fire hazards.</t>
   </si>
   <si>
     <t>Install green walls Outcomes</t>
@@ -933,10 +938,9 @@
     <t>Construct a Miyawaki Forest</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached to install some small, but densely populated fast growing forests.
-The tennis court sized forests can be planted almost anywhere, given their size, and provide the benefits of a forest right in the heart of the town, creating urban spaces that help mitigate the impacts of heat stress and connect people with nature.
-However, the desire for fast growing forests can lead to the selection of tree species that are susceptible to disease and pests.
-</t>
+    <t>The municipality has been approached to install small, densely planted, fast-growing forests in urban areas.
+Roughly the size of a tennis court, these compact forests can be established in a variety of locations and offer many of the benefits of larger woodlands, helping to reduce urban heat, support biodiversity, and strengthen residents' connection with nature.
+However, the focus on rapid growth may lead to the selection of tree species that are more vulnerable to pests and disease, potentially affecting the long-term health and resilience of these green spaces.</t>
   </si>
   <si>
     <t>Miyawaki Forest Outcomes</t>
@@ -960,8 +964,8 @@
     <t>Embrace heat tourism</t>
   </si>
   <si>
-    <t>Municipality is looking to make the most of its annual heatwave and brand the town for 'extreme heat tourism', to attract northern European tourists looking for hot holiday action. 
-This should create a tourist boom and help the local economy by creating jobs to service tourist needs. However, supporting tourists may adversely affect the town by choosing developments that meet tourist, rather than local needs.</t>
+    <t>The municipality is exploring the idea of capitalizing on its annual heatwave by branding the town as a destination for “extreme heat tourism,” aimed at attracting northern European tourists seeking high-temperature holiday experiences.
+This strategy has the potential to boost tourism, stimulate the local economy, and create new jobs to support visitor services. However, prioritizing tourist infrastructure could risk shifting development focus away from the long-term needs of local residents.</t>
   </si>
   <si>
     <t>Heat tourism Outcomes</t>
@@ -985,8 +989,8 @@
     <t>Create a heat knowledge base</t>
   </si>
   <si>
-    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through heat waves and extreme heat.
-Research has shown that people often make bad choices about dealing with heat and will generally make bade decisions when dealing with heat stroke. A website that provides support and information will help residents to become more knowledgeable and make more appropriate decisions.</t>
+    <t>The municipality has been approached to develop a community website that offers residents practical information and support to help them cope with heatwaves and extreme heat events.
+Research indicates that people often make poor decisions when dealing with extreme heat, particularly in cases of heat stress or heatstroke. By providing accessible, reliable information, the website can help residents make better-informed choices and respond more effectively during high-temperature conditions.</t>
   </si>
   <si>
     <t>Heat knowledge base Outcomes</t>
@@ -998,8 +1002,8 @@
     <t>Create a heat digital twin</t>
   </si>
   <si>
-    <t>Municipality will develop a heat wave modelling digital twin to evaluate the likelihood and impact of potential heat waves, to better prepare for heat waves and long-term planning for heat resilience.
-The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+    <t>The municipality will develop a heatwave modelling digital twin to assess the likelihood and potential impacts of extreme heat events. This tool will support improved preparedness and inform long-term planning for heat resilience.
+By integrating real-world data with advanced simulation models, the digital twin will generate valuable insights. Its effectiveness, however, will depend heavily on the quality of the data collected and the accuracy of the modelling.</t>
   </si>
   <si>
     <t>Heat digital twin Outcomes</t>
@@ -1015,24 +1019,19 @@
   </si>
   <si>
     <t>The digital twin is providing the municipality with great insights and predictions, allowing heat protection activities to be far better targeted. Most residents don't notice, but the town is coping with long-term heat.</t>
-  </si>
-  <si>
-    <t>The project is a disaster! The dam has been successfully constructed, but it's empty! It turns out that the municipality signed the wrong water ordinances and the expected inflowing rives are flowing elsewhere.</t>
-  </si>
-  <si>
-    <t>The project is a disaster! The municipality advocated for the smart meter app, but it turned to be full of spyware, collecting customer details and making unauthorised charges on customer accounts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipality has been approached by local university to host a beaver land management project to reduce river flooding.
-The proposal is positively regarded as it positions the municipality as being forward looking by adopting nature-based solutions and the trial should be a low-cost activity.
-However, as a research project, it's unproven and may go horribly wrong. There's also the consideration that beavers are an introduced species, so may adversely impact the local flora and fauna. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1049,9 +1048,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="3" tint="0.499984740745262"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1072,21 +1070,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1094,11 +1423,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1106,14 +1677,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1140,21 +1717,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1432,40 +2050,40 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="2" s="2" customFormat="1" ht="219.75" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1476,372 +2094,375 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+    <row r="3" ht="280" customHeight="1" spans="2:4">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+    <row r="4" ht="192.75" spans="2:4">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+    <row r="5" ht="225.75" spans="2:4">
+      <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="272" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+    <row r="6" s="10" customFormat="1" ht="225" spans="2:4">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+    <row r="7" ht="213.75" spans="2:4">
+      <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" customWidth="1"/>
-    <col min="5" max="7" width="22.5" style="10" customWidth="1"/>
-    <col min="8" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="31.83203125" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" customWidth="1"/>
-    <col min="14" max="15" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="11"/>
+    <col min="2" max="2" width="22.8296296296296" customWidth="1"/>
+    <col min="3" max="3" width="30.162962962963" customWidth="1"/>
+    <col min="4" max="4" width="37.8296296296296" customWidth="1"/>
+    <col min="5" max="7" width="22.5037037037037" style="12" customWidth="1"/>
+    <col min="8" max="10" width="23.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="23.6666666666667" style="12" customWidth="1"/>
+    <col min="12" max="12" width="31.8296296296296" customWidth="1"/>
+    <col min="13" max="13" width="28.6666666666667" customWidth="1"/>
+    <col min="14" max="15" width="23.6666666666667" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:15">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="10" customFormat="1" ht="171" spans="1:15">
+      <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="10" customFormat="1" ht="171" spans="1:15">
+      <c r="A3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="10" customFormat="1" ht="171" spans="1:15">
+      <c r="A4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="10" customFormat="1" ht="171" spans="1:15">
+      <c r="A5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="10" customFormat="1" ht="171" spans="1:15">
+      <c r="A6" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1856,20 +2477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -1877,56 +2499,59 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" ht="142.5" spans="1:2">
       <c r="A2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" ht="29.25" spans="1:2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="137" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8296296296296" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="9" width="10.83203125" style="3"/>
-    <col min="10" max="10" width="14.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="42.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="46.83203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="50.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="2" max="2" width="13.5037037037037" style="2" customWidth="1"/>
+    <col min="3" max="3" width="82.6" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.5037037037037" style="2" customWidth="1"/>
+    <col min="5" max="9" width="10.8296296296296" style="4"/>
+    <col min="10" max="10" width="14.6666666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="42.6666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="46.8296296296296" style="2" customWidth="1"/>
+    <col min="13" max="13" width="42.6666666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="50.6666666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.8296296296296" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.8296296296296" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="28.5" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1939,22 +2564,22 @@
       <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1973,33 +2598,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" ht="128.25" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>-1</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -2018,33 +2643,33 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" ht="114" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>-1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>-1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>-1</v>
       </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>111</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -2063,32 +2688,32 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" ht="85.5" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -2110,32 +2735,32 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" ht="85.5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -2157,32 +2782,32 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" ht="71.25" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -2204,32 +2829,32 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" ht="85.5" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>-1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -2251,30 +2876,30 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" ht="99.75" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3">
+      <c r="D8" s="5"/>
+      <c r="E8" s="4">
         <v>-1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -2296,268 +2921,268 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" ht="85.5" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
+      <c r="D9" s="5"/>
+      <c r="E9" s="4">
         <v>-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>-1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>309</v>
+      <c r="K9" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" ht="101.25" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3">
+      <c r="C10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>-1</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>-1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K10" s="15" t="s">
         <v>167</v>
       </c>
+      <c r="K10" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="L10" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="153" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" ht="131.25" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3">
+      <c r="C11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4">
         <v>-2</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="153" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" ht="128.25" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3">
+      <c r="C12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>2</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>310</v>
+        <v>183</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" ht="99.75" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3">
+        <v>189</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" ht="85.5" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3">
+        <v>197</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4">
         <v>-1</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <v>2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>145</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>148</v>
@@ -2566,306 +3191,306 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" ht="99.75" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3">
+        <v>202</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4">
         <v>-1</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+    <row r="16" ht="114.75" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3">
+        <v>209</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" ht="114" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3">
+        <v>217</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>-1</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>-1</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>-1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" ht="136" customHeight="1" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+        <v>225</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" ht="143.25" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
+        <v>233</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" ht="114" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3">
+        <v>240</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4">
         <v>-1</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" ht="104.25" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E21" s="3">
+        <v>248</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" s="4">
         <v>-1</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
         <v>2</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>145</v>
@@ -2874,7 +3499,7 @@
         <v>146</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>148</v>
@@ -2883,309 +3508,309 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+    <row r="22" ht="99.75" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="3">
+        <v>252</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="4">
         <v>-1</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" ht="85.5" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" s="3">
+        <v>260</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
         <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" ht="128.25" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="3">
+        <v>269</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
         <v>1</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="4">
         <v>2</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" ht="85.5" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" s="3">
+        <v>262</v>
+      </c>
+      <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="4">
         <v>1</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="4">
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="153" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" ht="114" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+        <v>262</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" ht="113.25" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E27" s="3">
+        <v>293</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="4">
         <v>4</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
         <v>-2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" ht="99" customHeight="1" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E28" s="3">
+        <v>301</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" s="4">
         <v>-1</v>
       </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>145</v>
@@ -3194,7 +3819,7 @@
         <v>146</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>148</v>
@@ -3203,45 +3828,45 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" ht="99.75" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E29" s="3">
+        <v>305</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E29" s="4">
         <v>-1</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>156</v>
@@ -3250,5 +3875,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dev/game_my_interventions.xlsx
+++ b/dev/game_my_interventions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18390" activeTab="3"/>
+    <workbookView windowWidth="24990" windowHeight="11250" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -356,7 +356,7 @@
     <t>Approve a fish farm</t>
   </si>
   <si>
-    <t>The municipality has been approached to approve the development of an offshore fish farm that will employ modern aquaculture techniques to optimize fish yields. The project is expected to create local employment opportunities in both fish cultivation and processing, while also increasing the availability of high-quality fish at both regional and national levels.
+    <t>THIS IS A TEST. The municipality has been approached to approve the development of an offshore fish farm that will employ modern aquaculture techniques to optimize fish yields. The project is expected to create local employment opportunities in both fish cultivation and processing, while also increasing the availability of high-quality fish at both regional and national levels.
 However, fish farms have faced criticism for promoting monocultures, not only among farmed fish species but also by impacting the diversity of other marine life in the surrounding waters. Additionally, concerns have been raised about the lack of transparency in some fish farming operations, particularly regarding their husbandry practices.</t>
   </si>
   <si>
@@ -1027,9 +1027,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1070,38 +1070,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,15 +1094,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -1139,7 +1125,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1147,37 +1155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,15 +1170,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,7 +1192,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,7 +1230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,13 +1248,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,37 +1332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,13 +1356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,43 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,37 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,21 +1421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1458,6 +1443,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1468,6 +1479,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,36 +1507,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1524,148 +1524,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2532,7 +2532,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8296296296296" defaultRowHeight="16.5"/>

--- a/dev/game_my_interventions.xlsx
+++ b/dev/game_my_interventions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk.sharepoint.com/sites/CWS_EU-ARSINOE/Shared Documents/ARSINOE/WP4/Serious Game/arsinoe-serious-game.github.io/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E096D7F1-EB1D-4F4B-88E3-8E59183A16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BEB981A-025C-46C2-8F46-CDA0D525CBA8}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{E096D7F1-EB1D-4F4B-88E3-8E59183A16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E56331-E568-4E40-A375-3869ACED90EF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="17496" windowHeight="30216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -56,64 +56,34 @@
     <t>Student</t>
   </si>
   <si>
-    <t>You're a student, living and studying in the town. The local college is great, but you really like all the outdoor amenities in the town.
-You like the idea of having money and freedom but are unsure how to get it.​ Getting outdoors and doing nice things with your friends and fam. Not having to work that much at the moment.
-You hate older people telling you what to do and where to go, were they ever young? The state of the environment, everything seems to be messed up and getting worse.  You worry deeply about your future and the state of the world.</t>
-  </si>
-  <si>
     <t>student2.jpg</t>
   </si>
   <si>
     <t>Young Worker</t>
   </si>
   <si>
-    <t>It’s been a couple of years since you left education and have been finding your feet in the adult world of employment and responsibilities.
-You like having a stable job with a decent wage and room to grow,​ having nice things to do when you're not at work,  being able to get on, buy a nice flat with your partner and start putting down some roots.​
-You hate​ the lack of work opportunities, you want to get on and build a career. You're struggling to make ends meet and  you seem to pay a lot of tax but not see much for it, given the state of the local environment, every thing looks tired and needs a good clean up.​</t>
-  </si>
-  <si>
     <t>single_worker.jpg</t>
   </si>
   <si>
     <t>Family</t>
   </si>
   <si>
-    <t>You’re a young parent with some rug rats. Life has new levels of complexity and you’re still trying to find your feet.​
-You like things you can do for and with your family, knowing that your kids have a future in the town​, and being able to unwind with your partner at the end of the day.​
-You hate people and policies that hate people with children​,  excessive government intervention​, and pollution that may impact your family.</t>
-  </si>
-  <si>
     <t>family.jpg</t>
   </si>
   <si>
     <t>Retiree</t>
   </si>
   <si>
-    <t>You are a retired worker. You’ve spent your lifetime working hard and, at your age, you are entitled to everything you deserve.​
-You like activities that meet your needs as an active member of society,  opportunities to shop, socialize and be entertained, and easy transport links so you can get around without any stress​
-You hate change that adversely impacts you.​ Young people whinging about having it tough as you had it tough when you were young, and it didn’t affect you much.​ Taxation as you’ve paid tax all your life and should be done with it now.​</t>
-  </si>
-  <si>
     <t>retiree.jpg</t>
   </si>
   <si>
     <t>Business owner</t>
   </si>
   <si>
-    <t>You are a local business owner. You’ve managed your shop for years. It keeps you busy enough and financially secure, but not wealthy.​
-You like nice customers that make good purchases​, tourists and holidaymakers that are keen to buy at your shop, and being apart of the local community​
-You hate the mall and out of town shopping taking away customers,​ high parking charges stopping people coming to town.​ The municipality needlessly changing things, you like things the way they are and want to keep them that way.</t>
-  </si>
-  <si>
     <t>business_owner.jpg</t>
   </si>
   <si>
     <t>Politician</t>
-  </si>
-  <si>
-    <t>You are a local politician who got into politics to address injustice both locally and in the wider community.
-You like being a force for good in the local community, being an agent of change, even if the change is often what people need rather than want, and keeping big businesses and the powerful in check.
-You hate people and organisations that don't understand that we are just tenants, not the long term owners of the town. Carpet baggers trying to make a short term profit on the backs of hard working people.</t>
   </si>
   <si>
     <t>politician.jpg</t>
@@ -1022,13 +992,43 @@
   </si>
   <si>
     <t xml:space="preserve">The town is experiencing difficulties following the recent event, requiring significant infrastructure repairs and resulting in some business closures and hardships for residents. While acknowledging the situation could be graver, many feel outcomes could have been lessen had the municipality handled things differently. There's a prevailing critic that local leadership mishandled their response to the event. </t>
+  </si>
+  <si>
+    <t>It’s been a couple of years since you left education and have been finding your feet in the adult world of employment and responsibilities.
+You like having a stable job with a decent wage and room to grow,​ having nice things to do when you're not at work, being able to get on, buy a nice flat with your partner and start putting down some roots.​
+You hate​ the lack of work opportunities, you want to get on and build a career. You're struggling to make ends meet and you seem to pay a lot of tax but not see much for it, given the state of the local environment, every thing looks tired and needs a good clean up.​</t>
+  </si>
+  <si>
+    <t>You’re a young parent with young children. Life is now more complicated and you’re still learning how to handle everything.​
+You enjoy doing things with your family, knowing that your kids have a future in the town​, and being able to unwind with your partner at the end of the day.​
+You dislike people and policies that are family unfriendly. You don't want excessive government intervention or pollution that may impact your family.</t>
+  </si>
+  <si>
+    <t>You are a local business owner and have run it for years. The shop keeps you busy enough and financially secure, but not wealthy.​
+You like nice customers who make good purchases​, tourists and holidaymakers who are keen to buy at your shop. You feel proubd to be a part of the local community​.
+You hate the mall outside town that takes your customers, high parking charges stopping people coming to town.​ The municipality needlessly changing things, you prefer things to stay as they are.</t>
+  </si>
+  <si>
+    <t>You are a local politician who entered politics to fight injustice both locally and in the wider community.
+You enjoy being a positive influence in the community, helping change things even when people do not want it, and keeping big companies and powerful people from abusing their power.
+You hate people and organisations that don't understand that we are just tenants, not the permanent owners of the town. You also hate those who try to make quick money at the expense of hardworking citizens.</t>
+  </si>
+  <si>
+    <t>You're a student who lives in the town and studies at the local college. The college is great, but you especially enjoy all the outdoor places around town.
+You would like to have more money and freedom but are unsure how to get them.​ You love going outdoors and doing nice things with friends and family, and prefer not to work too hard at the moment.
+You hate older people telling you what to do and where to go, were they ever young? The state of the environment, everything seems to be messed up and getting worse. You worry deeply about your future and the state of the world.</t>
+  </si>
+  <si>
+    <t>You are a retired worker. You’ve spent your lifetime working hard, so at this age, you are expecting everything that is rightful for you.
+You enjoy activities that suit an active senior citizen such as shopping, meeting friends,  entertaining. You like using public transport that is easy and stress-free.​
+You don't like changes that hurts you.​ You are annoyed when young people complain about "it's hard now" while you remember how tough it was when you were young, but it didn’t affect you much.​ You have paid taxes all your life and think that retirees should not pay for extra taxes.​</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1046,13 +1046,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -1089,6 +1082,18 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1110,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1137,37 +1142,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1467,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1492,75 +1503,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="280.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="279.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="279.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C4" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="202.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="5" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="234" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="C6" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C7" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="265.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="234" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1568,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="114" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="114" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1591,285 +1602,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="B2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="D2" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="I2" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="L2" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="234" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="D3" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="218.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="C4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="M4" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="M2" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="234" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="20" t="s">
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="202.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="B5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="M3" s="20" t="s">
+      <c r="J5" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="218.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="N3" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="O3" s="20" t="s">
+      <c r="J6" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="218.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" ht="202.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" ht="218.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="O6" s="19" t="s">
         <v>300</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -1898,26 +1909,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1939,1339 +1950,1339 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="12"/>
-    <col min="2" max="2" width="13.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="82.59765625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="14" customWidth="1"/>
-    <col min="5" max="9" width="10.8984375" style="17"/>
-    <col min="10" max="10" width="14.59765625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="42.59765625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="46.8984375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="42.59765625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="50.59765625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="38.8984375" style="14" customWidth="1"/>
-    <col min="16" max="16384" width="10.8984375" style="14"/>
+    <col min="1" max="1" width="10.8984375" style="11"/>
+    <col min="2" max="2" width="13.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="82.59765625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="13" customWidth="1"/>
+    <col min="5" max="9" width="10.8984375" style="16"/>
+    <col min="10" max="10" width="14.59765625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="42.59765625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="46.8984375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="42.59765625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="50.59765625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="38.8984375" style="13" customWidth="1"/>
+    <col min="16" max="16384" width="10.8984375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="12" t="s">
+      <c r="C3" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="78" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
+        <v>3</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16">
+        <v>5</v>
+      </c>
+      <c r="F10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>2</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
+        <v>2</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>2</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>3</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17">
+      <c r="D16" s="15"/>
+      <c r="E16" s="16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16">
         <v>4</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F17" s="16">
         <v>-1</v>
       </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="G17" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="135.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>3</v>
+      </c>
+      <c r="G18" s="16">
+        <v>2</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>2</v>
+      </c>
+      <c r="G19" s="16">
+        <v>2</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17">
+      <c r="D20" s="15"/>
+      <c r="E20" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="16">
+        <v>2</v>
+      </c>
+      <c r="G20" s="16">
+        <v>2</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>3</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>3</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16">
+        <v>2</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16">
+        <v>2</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="16">
         <v>4</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>-2</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="16">
         <v>-1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>2</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="16">
         <v>-1</v>
       </c>
-      <c r="H3" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
         <v>3</v>
       </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="78" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="17">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="17">
-        <v>2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="J29" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="17">
-        <v>3</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="17">
-        <v>2</v>
-      </c>
-      <c r="H9" s="17">
-        <v>3</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17">
-        <v>5</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="140.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>2</v>
-      </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17">
-        <v>2</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17">
-        <v>2</v>
-      </c>
-      <c r="I12" s="17">
-        <v>1</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17">
-        <v>2</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1</v>
-      </c>
-      <c r="H13" s="17">
-        <v>2</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
-        <v>2</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
-        <v>3</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="140.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17">
-        <v>2</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
-        <v>2</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17">
-        <v>4</v>
-      </c>
-      <c r="F17" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="135.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>3</v>
-      </c>
-      <c r="G18" s="17">
-        <v>2</v>
-      </c>
-      <c r="H18" s="17">
-        <v>1</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>2</v>
-      </c>
-      <c r="G19" s="17">
-        <v>2</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="17">
-        <v>2</v>
-      </c>
-      <c r="G20" s="17">
-        <v>2</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
-        <v>2</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E22" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17">
-        <v>3</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="17">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>3</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" s="17">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17">
-        <v>1</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
-        <v>1</v>
-      </c>
-      <c r="I24" s="17">
-        <v>2</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="E25" s="17">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17">
-        <v>1</v>
-      </c>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="17">
-        <v>1</v>
-      </c>
-      <c r="I25" s="17">
-        <v>2</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
-        <v>2</v>
-      </c>
-      <c r="G26" s="17">
-        <v>1</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>1</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="17">
-        <v>4</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <v>2</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <v>3</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3281,6 +3292,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005392FCBF87D49B42A292C3CE9A4D3B76" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2018adbfa8fe7c07b7d14a0efbd30fdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12e78213-ec31-4378-9b3d-1b4fd2bbf3da" xmlns:ns3="0a71df36-a7b6-478d-9516-deb0f2957004" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6059fb5f0f0858b7740d5d09793f75b8" ns2:_="" ns3:_="">
     <xsd:import namespace="12e78213-ec31-4378-9b3d-1b4fd2bbf3da"/>
@@ -3509,7 +3529,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="12e78213-ec31-4378-9b3d-1b4fd2bbf3da">
@@ -3519,16 +3539,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A13E9D2-51D0-41F7-8F8C-BD0374D3D4CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31971D29-352E-45D2-B701-CAE9B1515D45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3547,7 +3566,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040BB05C-016A-483C-86D0-78E247708756}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="12e78213-ec31-4378-9b3d-1b4fd2bbf3da"/>
@@ -3562,12 +3581,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A13E9D2-51D0-41F7-8F8C-BD0374D3D4CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dev/game_my_interventions.xlsx
+++ b/dev/game_my_interventions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk.sharepoint.com/sites/CWS_EU-ARSINOE/Shared Documents/ARSINOE/WP4/Serious Game/arsinoe-serious-game.github.io/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{E096D7F1-EB1D-4F4B-88E3-8E59183A16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E56331-E568-4E40-A375-3869ACED90EF}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{E096D7F1-EB1D-4F4B-88E3-8E59183A16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB18BF2D-4146-4A7F-9073-BC2BBABD91E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17496" windowHeight="30216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16068" yWindow="1680" windowWidth="23160" windowHeight="13092" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -858,10 +858,6 @@
 However, there are concerns that the development could negatively impact the town centre, as shoppers may prefer the convenience of the new retail hub. Additionally, the proposed site is a well-loved local meadow, valued by the community for recreation and green space.</t>
   </si>
   <si>
-    <t>The local university suggests to host a beaver-led land management project as a nature-based solution aimeing at reducing river flooding. The low-cost project positions the municipality as forward-thinking in its approach to climate resilience and environmental sustainability, which could generate valuable insights into natural flood mitigation.
-However, as a research initiative, the project may not deliver the intended results. Also the introduction of beavers may have potential impacts on local ecosystems, including native flora and fauna.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The community along the coastal road has been repeatedly impacted by sea flooding, driven by high tides and onshore winds, causing significant disruption of services, costly property damage and extensive clean-up efforts.
 Despite the wall cannot fully elimiate the risks of extreme events and could affect the scenic coastal, views, and the construction process will be disruptive, the long-term benefits, including improved safety, reduced damage, and economic stability, may outweigh the drawbacks, supporting the community’s growth and resilience.  
 </t>
@@ -1022,6 +1018,10 @@
     <t>You are a retired worker. You’ve spent your lifetime working hard, so at this age, you are expecting everything that is rightful for you.
 You enjoy activities that suit an active senior citizen such as shopping, meeting friends,  entertaining. You like using public transport that is easy and stress-free.​
 You don't like changes that hurts you.​ You are annoyed when young people complain about "it's hard now" while you remember how tough it was when you were young, but it didn’t affect you much.​ You have paid taxes all your life and think that retirees should not pay for extra taxes.​</t>
+  </si>
+  <si>
+    <t>The local university suggests to host a beaver-led land management project as a nature-based solution aimeing at reducing river flooding. The low-cost project positions the municipality as forward-thinking in its approach to climate resilience and environmental sustainability, which could generate valuable insights into natural flood mitigation.
+However, the beavers may dig burrows and channels that affect the stability of river banks, leading to erosions, damage to crops and property.</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1508,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
@@ -1530,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1541,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1552,7 +1552,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
@@ -1563,7 +1563,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>15</v>
@@ -1659,7 +1659,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>32</v>
@@ -1674,25 +1674,25 @@
         <v>35</v>
       </c>
       <c r="I2" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>278</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="234" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>32</v>
@@ -1718,28 +1718,28 @@
         <v>34</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>36</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="218.4" x14ac:dyDescent="0.25">
@@ -1753,7 +1753,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>32</v>
@@ -1768,7 +1768,7 @@
         <v>43</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>44</v>
@@ -1777,16 +1777,16 @@
         <v>36</v>
       </c>
       <c r="L4" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>282</v>
-      </c>
       <c r="O4" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="202.8" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>32</v>
@@ -1815,25 +1815,25 @@
         <v>48</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="M5" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>303</v>
-      </c>
       <c r="N5" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="218.4" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>32</v>
@@ -1862,25 +1862,25 @@
         <v>52</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>295</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>296</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>305</v>
-      </c>
       <c r="N6" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -1941,11 +1941,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2041,10 +2041,10 @@
         <v>61</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>62</v>
@@ -2086,7 +2086,7 @@
         <v>66</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>67</v>
@@ -2514,7 +2514,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>45</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>150</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="16">
@@ -2747,7 +2747,7 @@
         <v>164</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="16">
@@ -2792,7 +2792,7 @@
         <v>171</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16">
@@ -2837,7 +2837,7 @@
         <v>177</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="16">
@@ -3114,7 +3114,7 @@
         <v>216</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>195</v>
@@ -3292,12 +3292,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12e78213-ec31-4378-9b3d-1b4fd2bbf3da">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3530,19 +3531,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12e78213-ec31-4378-9b3d-1b4fd2bbf3da">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A13E9D2-51D0-41F7-8F8C-BD0374D3D4CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040BB05C-016A-483C-86D0-78E247708756}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="12e78213-ec31-4378-9b3d-1b4fd2bbf3da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0a71df36-a7b6-478d-9516-deb0f2957004"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3567,18 +3576,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040BB05C-016A-483C-86D0-78E247708756}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A13E9D2-51D0-41F7-8F8C-BD0374D3D4CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="12e78213-ec31-4378-9b3d-1b4fd2bbf3da"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0a71df36-a7b6-478d-9516-deb0f2957004"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>